--- a/IPPU/A2_Structure_Lists.xlsx
+++ b/IPPU/A2_Structure_Lists.xlsx
@@ -244,19 +244,19 @@
     <t>E5IPPUPARAFFIN</t>
   </si>
   <si>
+    <t>CO2e_leakage</t>
+  </si>
+  <si>
+    <t>CO2e_HFC</t>
+  </si>
+  <si>
     <t>CO2e_CEM</t>
   </si>
   <si>
-    <t>CO2e_HFC</t>
-  </si>
-  <si>
-    <t>CO2e_leakage</t>
+    <t>CO2e_consumption_com</t>
   </si>
   <si>
     <t>CO2e_IPPU</t>
-  </si>
-  <si>
-    <t>CO2e_consumption_com</t>
   </si>
   <si>
     <t>ECU</t>
@@ -1256,13 +1256,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B0D158A-8108-40BC-8D8B-942BE12A9582}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{672368E4-7DA2-4F46-8092-12990E476B43}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0C20E40-366A-4AAA-B36B-137A8D8A428F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75A9F22B-3886-49BA-BB1B-2EC942F85793}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0E1A941-4638-4D3E-964B-0F4A34488907}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D44523AD-4D32-4870-9491-78560FC15FAA}"/>
 </file>